--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="187">
   <si>
     <t>ROBOT ROUNDS SCHEDULE</t>
   </si>
@@ -77,33 +77,6 @@
     <t>Yellow 2</t>
   </si>
   <si>
-    <t>8:30</t>
-  </si>
-  <si>
-    <t>8:33</t>
-  </si>
-  <si>
-    <t>8:36</t>
-  </si>
-  <si>
-    <t>8:40</t>
-  </si>
-  <si>
-    <t>8:43</t>
-  </si>
-  <si>
-    <t>8:46</t>
-  </si>
-  <si>
-    <t>8:50</t>
-  </si>
-  <si>
-    <t>8:53</t>
-  </si>
-  <si>
-    <t>8:56</t>
-  </si>
-  <si>
     <t>9:00</t>
   </si>
   <si>
@@ -275,6 +248,24 @@
     <t>12:06</t>
   </si>
   <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>12:16</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>12:23</t>
+  </si>
+  <si>
+    <t>12:26</t>
+  </si>
+  <si>
     <t>JUDGING SESSION SCHEDULE</t>
   </si>
   <si>
@@ -287,25 +278,22 @@
     <t>Room 3</t>
   </si>
   <si>
-    <t>8:30-9:00</t>
-  </si>
-  <si>
-    <t>9:10-9:40</t>
-  </si>
-  <si>
-    <t>9:50-10:20</t>
+    <t>Room 4</t>
+  </si>
+  <si>
+    <t>9:00-9:30</t>
+  </si>
+  <si>
+    <t>9:45-10:15</t>
   </si>
   <si>
     <t>10:30-11:00</t>
   </si>
   <si>
-    <t>11:10-11:40</t>
-  </si>
-  <si>
-    <t>11:50-12:20</t>
-  </si>
-  <si>
-    <t>12:30-1:00</t>
+    <t>11:15-11:45</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
   </si>
   <si>
     <t>TABLE R1 SCHEDULE</t>
@@ -317,108 +305,105 @@
     <t>Team</t>
   </si>
   <si>
-    <t>8:30-8:33</t>
-  </si>
-  <si>
-    <t>8:40-8:43</t>
-  </si>
-  <si>
-    <t>8:50-8:53</t>
-  </si>
-  <si>
     <t>9:00-9:03</t>
   </si>
   <si>
     <t>9:10-9:13</t>
   </si>
   <si>
+    <t>9:20-9:23</t>
+  </si>
+  <si>
     <t>9:30-9:33</t>
   </si>
   <si>
     <t>9:40-9:43</t>
   </si>
   <si>
-    <t>9:50-9:53</t>
-  </si>
-  <si>
     <t>10:00-10:03</t>
   </si>
   <si>
     <t>10:10-10:13</t>
   </si>
   <si>
+    <t>10:20-10:23</t>
+  </si>
+  <si>
     <t>10:30-10:33</t>
   </si>
   <si>
     <t>10:40-10:43</t>
   </si>
   <si>
-    <t>10:50-10:53</t>
-  </si>
-  <si>
     <t>11:00-11:03</t>
   </si>
   <si>
     <t>11:10-11:13</t>
   </si>
   <si>
+    <t>11:20-11:23</t>
+  </si>
+  <si>
     <t>11:30-11:33</t>
   </si>
   <si>
+    <t>11:40-11:43</t>
+  </si>
+  <si>
+    <t>12:00-12:03</t>
+  </si>
+  <si>
     <t>TABLE R2 SCHEDULE</t>
   </si>
   <si>
     <t>TABLE B1 SCHEDULE</t>
   </si>
   <si>
-    <t>8:33-8:36</t>
-  </si>
-  <si>
-    <t>8:43-8:46</t>
-  </si>
-  <si>
-    <t>8:53-8:56</t>
-  </si>
-  <si>
     <t>9:03-9:06</t>
   </si>
   <si>
     <t>9:13-9:16</t>
   </si>
   <si>
+    <t>9:23-9:26</t>
+  </si>
+  <si>
     <t>9:33-9:36</t>
   </si>
   <si>
     <t>9:43-9:46</t>
   </si>
   <si>
-    <t>9:53-9:56</t>
-  </si>
-  <si>
     <t>10:03-10:06</t>
   </si>
   <si>
     <t>10:13-10:16</t>
   </si>
   <si>
+    <t>10:23-10:26</t>
+  </si>
+  <si>
     <t>10:33-10:36</t>
   </si>
   <si>
     <t>10:43-10:46</t>
   </si>
   <si>
-    <t>10:53-10:56</t>
-  </si>
-  <si>
     <t>11:03-11:06</t>
   </si>
   <si>
     <t>11:13-11:16</t>
   </si>
   <si>
+    <t>11:23-11:26</t>
+  </si>
+  <si>
     <t>11:33-11:36</t>
   </si>
   <si>
+    <t>11:43-11:46</t>
+  </si>
+  <si>
     <t>12:03-12:06</t>
   </si>
   <si>
@@ -428,57 +413,60 @@
     <t>TABLE Y1 SCHEDULE</t>
   </si>
   <si>
-    <t>8:36-8:40</t>
-  </si>
-  <si>
-    <t>8:46-8:50</t>
-  </si>
-  <si>
-    <t>8:56-9:00</t>
-  </si>
-  <si>
     <t>9:06-9:10</t>
   </si>
   <si>
     <t>9:16-9:20</t>
   </si>
   <si>
+    <t>9:26-9:30</t>
+  </si>
+  <si>
     <t>9:36-9:40</t>
   </si>
   <si>
     <t>9:46-9:50</t>
   </si>
   <si>
-    <t>9:56-10:00</t>
-  </si>
-  <si>
     <t>10:06-10:10</t>
   </si>
   <si>
     <t>10:16-10:20</t>
   </si>
   <si>
+    <t>10:26-10:30</t>
+  </si>
+  <si>
     <t>10:36-10:40</t>
   </si>
   <si>
     <t>10:46-10:50</t>
   </si>
   <si>
-    <t>10:56-11:00</t>
-  </si>
-  <si>
     <t>11:06-11:10</t>
   </si>
   <si>
     <t>11:16-11:20</t>
   </si>
   <si>
+    <t>11:26-11:30</t>
+  </si>
+  <si>
     <t>11:36-11:40</t>
   </si>
   <si>
+    <t>11:46-11:50</t>
+  </si>
+  <si>
     <t>12:06-12:10</t>
   </si>
   <si>
+    <t>12:16-12:20</t>
+  </si>
+  <si>
+    <t>12:26-12:30</t>
+  </si>
+  <si>
     <t>TABLE Y2 SCHEDULE</t>
   </si>
   <si>
@@ -503,27 +491,33 @@
     <t>Match 9</t>
   </si>
   <si>
+    <t>Table B1</t>
+  </si>
+  <si>
+    <t>Match 11</t>
+  </si>
+  <si>
+    <t>Table Y2</t>
+  </si>
+  <si>
+    <t>Match 14</t>
+  </si>
+  <si>
     <t>Table Y1</t>
   </si>
   <si>
-    <t>Match 11</t>
+    <t>Match 16</t>
   </si>
   <si>
     <t>Table R2</t>
   </si>
   <si>
-    <t>Match 14</t>
-  </si>
-  <si>
-    <t>Table B1</t>
-  </si>
-  <si>
-    <t>Match 16</t>
-  </si>
-  <si>
     <t>TEAM 156 SCHEDULE</t>
   </si>
   <si>
+    <t>Match 13</t>
+  </si>
+  <si>
     <t>Match 15</t>
   </si>
   <si>
@@ -536,24 +530,21 @@
     <t>Table B2</t>
   </si>
   <si>
-    <t>Match 13</t>
-  </si>
-  <si>
-    <t>Table Y2</t>
-  </si>
-  <si>
     <t>TEAM 1915 SCHEDULE</t>
   </si>
   <si>
+    <t>TEAM 3348 SCHEDULE</t>
+  </si>
+  <si>
     <t>Match 1</t>
   </si>
   <si>
+    <t>Match 3</t>
+  </si>
+  <si>
     <t>Match 10</t>
   </si>
   <si>
-    <t>TEAM 3348 SCHEDULE</t>
-  </si>
-  <si>
     <t>TEAM 3404 SCHEDULE</t>
   </si>
   <si>
@@ -563,43 +554,43 @@
     <t>TEAM 3406 SCHEDULE</t>
   </si>
   <si>
-    <t>Match 3</t>
+    <t>TEAM 6328 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 20</t>
+  </si>
+  <si>
+    <t>TEAM 19478 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 4</t>
+  </si>
+  <si>
+    <t>TEAM 23980 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 21</t>
+  </si>
+  <si>
+    <t>TEAM 34259 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 2</t>
+  </si>
+  <si>
+    <t>TEAM 35599 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 37854 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 8</t>
+  </si>
+  <si>
+    <t>TEAM 39425 SCHEDULE</t>
   </si>
   <si>
     <t>Match 5</t>
-  </si>
-  <si>
-    <t>TEAM 6328 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 4</t>
-  </si>
-  <si>
-    <t>TEAM 19478 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 23980 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 2</t>
-  </si>
-  <si>
-    <t>TEAM 34259 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 8</t>
-  </si>
-  <si>
-    <t>TEAM 35599 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 22</t>
-  </si>
-  <si>
-    <t>TEAM 37854 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 39425 SCHEDULE</t>
   </si>
   <si>
     <t>TEAM 39444 SCHEDULE</t>
@@ -1074,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1139,28 +1130,28 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>1915</v>
+        <v>3348</v>
       </c>
       <c r="D3" s="4">
-        <v>3348</v>
+        <v>3404</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="G3" s="4">
-        <v>3406</v>
+        <v>6328</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="4">
-        <v>6328</v>
+        <v>19478</v>
       </c>
       <c r="J3" s="4">
-        <v>19478</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1171,28 +1162,28 @@
         <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>23980</v>
+        <v>34259</v>
       </c>
       <c r="D4" s="4">
-        <v>34259</v>
+        <v>35599</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4">
-        <v>35599</v>
+        <v>37854</v>
       </c>
       <c r="G4" s="4">
-        <v>37854</v>
+        <v>39425</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="4">
-        <v>39425</v>
+        <v>39444</v>
       </c>
       <c r="J4" s="4">
-        <v>39444</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1206,25 +1197,25 @@
         <v>3406</v>
       </c>
       <c r="D5" s="4">
-        <v>46299</v>
+        <v>3348</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4">
-        <v>40010</v>
+        <v>44576</v>
       </c>
       <c r="G5" s="4">
-        <v>44576</v>
+        <v>45218</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="4">
-        <v>45218</v>
+        <v>46036</v>
       </c>
       <c r="J5" s="4">
-        <v>46036</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1235,28 +1226,28 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <v>6328</v>
+        <v>19478</v>
       </c>
       <c r="D6" s="4">
-        <v>23980</v>
+        <v>34259</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4">
-        <v>19478</v>
+        <v>23980</v>
       </c>
       <c r="G6" s="4">
-        <v>34259</v>
+        <v>35599</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="4">
-        <v>35599</v>
+        <v>37854</v>
       </c>
       <c r="J6" s="4">
-        <v>39425</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1267,19 +1258,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="4">
-        <v>37854</v>
+        <v>39425</v>
       </c>
       <c r="D7" s="4">
-        <v>39444</v>
+        <v>40010</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="4">
-        <v>3406</v>
+        <v>45218</v>
       </c>
       <c r="G7" s="4">
-        <v>40010</v>
+        <v>46299</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>23</v>
@@ -1288,7 +1279,7 @@
         <v>44576</v>
       </c>
       <c r="J7" s="4">
-        <v>45218</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1331,16 +1322,16 @@
         <v>176</v>
       </c>
       <c r="G9" s="4">
-        <v>46036</v>
+        <v>1915</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="4">
-        <v>23980</v>
+        <v>35599</v>
       </c>
       <c r="J9" s="4">
-        <v>46299</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1351,28 +1342,28 @@
         <v>30</v>
       </c>
       <c r="C10" s="4">
-        <v>34259</v>
+        <v>39444</v>
       </c>
       <c r="D10" s="4">
-        <v>35599</v>
+        <v>39425</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="4">
+        <v>40010</v>
+      </c>
+      <c r="G10" s="4">
         <v>37854</v>
-      </c>
-      <c r="G10" s="4">
-        <v>39425</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="4">
-        <v>39444</v>
+        <v>46299</v>
       </c>
       <c r="J10" s="4">
-        <v>40010</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1383,16 +1374,16 @@
         <v>33</v>
       </c>
       <c r="C11" s="4">
-        <v>156</v>
+        <v>45218</v>
       </c>
       <c r="D11" s="4">
-        <v>45218</v>
+        <v>46036</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="4">
-        <v>23980</v>
+        <v>151</v>
       </c>
       <c r="G11" s="4">
         <v>176</v>
@@ -1401,10 +1392,10 @@
         <v>35</v>
       </c>
       <c r="I11" s="4">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J11" s="4">
-        <v>44576</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1415,28 +1406,28 @@
         <v>36</v>
       </c>
       <c r="C12" s="4">
-        <v>3348</v>
+        <v>3404</v>
       </c>
       <c r="D12" s="4">
-        <v>46036</v>
+        <v>6328</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="4">
-        <v>1915</v>
+        <v>39425</v>
       </c>
       <c r="G12" s="4">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="4">
-        <v>46299</v>
+        <v>3348</v>
       </c>
       <c r="J12" s="4">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1447,28 +1438,28 @@
         <v>39</v>
       </c>
       <c r="C13" s="4">
-        <v>39425</v>
+        <v>40010</v>
       </c>
       <c r="D13" s="4">
-        <v>151</v>
+        <v>46299</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="4">
-        <v>156</v>
+        <v>39444</v>
       </c>
       <c r="G13" s="4">
-        <v>39444</v>
+        <v>44576</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="4">
-        <v>40010</v>
+        <v>1915</v>
       </c>
       <c r="J13" s="4">
-        <v>37854</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1499,28 +1490,28 @@
         <v>45</v>
       </c>
       <c r="C15" s="4">
+        <v>156</v>
+      </c>
+      <c r="D15" s="4">
         <v>176</v>
-      </c>
-      <c r="D15" s="4">
-        <v>44576</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="4">
-        <v>45218</v>
+        <v>3404</v>
       </c>
       <c r="G15" s="4">
-        <v>1915</v>
+        <v>46036</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="4">
+        <v>45218</v>
+      </c>
+      <c r="J15" s="4">
         <v>3348</v>
-      </c>
-      <c r="J15" s="4">
-        <v>3404</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1531,28 +1522,28 @@
         <v>48</v>
       </c>
       <c r="C16" s="4">
-        <v>46036</v>
+        <v>6328</v>
       </c>
       <c r="D16" s="4">
-        <v>19478</v>
+        <v>1915</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="4">
-        <v>151</v>
+        <v>46299</v>
       </c>
       <c r="G16" s="4">
-        <v>46299</v>
+        <v>44576</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="I16" s="4">
+        <v>151</v>
+      </c>
+      <c r="J16" s="4">
         <v>3406</v>
-      </c>
-      <c r="J16" s="4">
-        <v>6328</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1566,16 +1557,16 @@
         <v>156</v>
       </c>
       <c r="D17" s="4">
-        <v>40010</v>
+        <v>19478</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="4">
-        <v>44576</v>
+        <v>34259</v>
       </c>
       <c r="G17" s="4">
-        <v>3348</v>
+        <v>23980</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>53</v>
@@ -1584,7 +1575,7 @@
         <v>176</v>
       </c>
       <c r="J17" s="4">
-        <v>1915</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1595,10 +1586,10 @@
         <v>54</v>
       </c>
       <c r="C18" s="4">
-        <v>45218</v>
+        <v>6328</v>
       </c>
       <c r="D18" s="4">
-        <v>3404</v>
+        <v>151</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>55</v>
@@ -1607,16 +1598,16 @@
         <v>46036</v>
       </c>
       <c r="G18" s="4">
-        <v>6328</v>
+        <v>3348</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="4">
-        <v>151</v>
+        <v>3404</v>
       </c>
       <c r="J18" s="4">
-        <v>3406</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1627,16 +1618,16 @@
         <v>57</v>
       </c>
       <c r="C19" s="4">
-        <v>3348</v>
+        <v>1915</v>
       </c>
       <c r="D19" s="4">
-        <v>1915</v>
+        <v>3406</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="4">
-        <v>46299</v>
+        <v>176</v>
       </c>
       <c r="G19" s="4">
         <v>19478</v>
@@ -1645,10 +1636,10 @@
         <v>59</v>
       </c>
       <c r="I19" s="4">
+        <v>23980</v>
+      </c>
+      <c r="J19" s="4">
         <v>156</v>
-      </c>
-      <c r="J19" s="4">
-        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1679,28 +1670,28 @@
         <v>63</v>
       </c>
       <c r="C21" s="4">
-        <v>19478</v>
+        <v>3404</v>
       </c>
       <c r="D21" s="4">
-        <v>6328</v>
+        <v>39444</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F21" s="4">
-        <v>23980</v>
+        <v>35599</v>
       </c>
       <c r="G21" s="4">
-        <v>35599</v>
+        <v>39425</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I21" s="4">
-        <v>3404</v>
+        <v>34259</v>
       </c>
       <c r="J21" s="4">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1720,8 +1711,12 @@
       <c r="H22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="4">
+        <v>40010</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6328</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
@@ -1740,35 +1735,11 @@
       <c r="H23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="4">
-        <v>39425</v>
-      </c>
-      <c r="G24" s="4">
-        <v>37854</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="4">
-        <v>39444</v>
-      </c>
-      <c r="J24" s="4">
-        <v>35599</v>
+      <c r="I23" s="4">
+        <v>23980</v>
+      </c>
+      <c r="J23" s="4">
+        <v>34259</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -1792,20 +1763,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -1813,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="11">
-        <v>3406</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -1824,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="11">
-        <v>37854</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
@@ -1835,10 +1806,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="11">
-        <v>44576</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -1846,10 +1817,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11">
-        <v>34259</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -1857,10 +1828,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11">
-        <v>40010</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
@@ -1868,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11">
-        <v>46036</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
@@ -1879,10 +1850,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11">
-        <v>39425</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -1890,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="11">
         <v>176</v>
@@ -1901,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="11">
-        <v>3404</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
@@ -1912,10 +1883,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11">
-        <v>39444</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -1923,10 +1894,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="11">
-        <v>1915</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
@@ -1934,10 +1905,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14" s="11">
-        <v>46299</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -1945,10 +1916,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11">
-        <v>3348</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
@@ -1956,10 +1927,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C16" s="11">
-        <v>6328</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
@@ -1967,7 +1938,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11">
         <v>19478</v>
@@ -1978,21 +1949,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" s="11">
-        <v>35599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="35" customHeight="1">
-      <c r="A19" s="11">
-        <v>22</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="11">
-        <v>37854</v>
+        <v>39425</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +1966,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2017,20 +1977,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2038,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4">
-        <v>6328</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2049,10 +2009,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4">
-        <v>39425</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2060,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4">
-        <v>45218</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2071,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4">
-        <v>35599</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2082,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4">
         <v>44576</v>
@@ -2093,10 +2053,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4">
-        <v>23980</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2104,10 +2064,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4">
-        <v>39444</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2115,10 +2075,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2126,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4">
-        <v>46299</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2137,10 +2097,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C12" s="4">
-        <v>40010</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2148,10 +2108,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4">
-        <v>3348</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2159,10 +2119,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C14" s="4">
-        <v>3406</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2170,7 +2130,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4">
         <v>176</v>
@@ -2181,10 +2141,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4">
-        <v>151</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2192,10 +2152,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4">
-        <v>156</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2203,21 +2163,32 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4">
-        <v>3404</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" s="4">
-        <v>39444</v>
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="4">
+        <v>23980</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -2241,20 +2212,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -2262,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" s="11">
-        <v>6328</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -2273,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="11">
-        <v>39425</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
@@ -2284,10 +2255,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" s="11">
-        <v>45218</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -2295,10 +2266,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" s="11">
-        <v>35599</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -2306,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="11">
         <v>44576</v>
@@ -2317,10 +2288,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="11">
-        <v>23980</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
@@ -2328,10 +2299,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="11">
-        <v>39444</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -2339,10 +2310,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
@@ -2350,10 +2321,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" s="11">
-        <v>46299</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
@@ -2361,10 +2332,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C12" s="11">
-        <v>40010</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -2372,10 +2343,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="11">
-        <v>3348</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
@@ -2383,10 +2354,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C14" s="11">
-        <v>3406</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -2394,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" s="11">
         <v>176</v>
@@ -2405,10 +2376,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" s="11">
-        <v>151</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
@@ -2416,10 +2387,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C17" s="11">
-        <v>156</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
@@ -2427,21 +2398,32 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C18" s="11">
-        <v>3404</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35" customHeight="1">
       <c r="A19" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" s="11">
-        <v>39444</v>
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="35" customHeight="1">
+      <c r="A20" s="11">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="11">
+        <v>23980</v>
       </c>
     </row>
   </sheetData>
@@ -2455,7 +2437,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2466,20 +2448,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2487,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4">
-        <v>19478</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2498,10 +2480,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4">
-        <v>39444</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2509,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4">
-        <v>46036</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2520,10 +2502,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4">
-        <v>39425</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2531,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4">
-        <v>45218</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2542,10 +2524,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4">
-        <v>46299</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2553,10 +2535,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="4">
-        <v>40010</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2564,10 +2546,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4">
-        <v>44576</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2575,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" s="4">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2586,10 +2568,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C12" s="4">
-        <v>37854</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2597,10 +2579,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4">
-        <v>3404</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2608,10 +2590,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C14" s="4">
-        <v>6328</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2619,10 +2601,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4">
-        <v>1915</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2630,10 +2612,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4">
-        <v>3406</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2641,10 +2623,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2652,21 +2634,32 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" s="4">
-        <v>35599</v>
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="4">
+        <v>34259</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2672,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -2690,20 +2683,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -2711,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" s="11">
-        <v>19478</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -2722,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="11">
-        <v>39444</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
@@ -2733,10 +2726,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" s="11">
-        <v>46036</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -2744,10 +2737,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" s="11">
-        <v>39425</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -2755,10 +2748,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="11">
-        <v>45218</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
@@ -2766,10 +2759,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="11">
-        <v>46299</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
@@ -2777,10 +2770,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="11">
-        <v>40010</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -2788,10 +2781,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11">
-        <v>44576</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
@@ -2799,10 +2792,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" s="11">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
@@ -2810,10 +2803,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C12" s="11">
-        <v>37854</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -2821,10 +2814,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="11">
-        <v>3404</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
@@ -2832,10 +2825,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C14" s="11">
-        <v>6328</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -2843,10 +2836,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" s="11">
-        <v>1915</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
@@ -2854,10 +2847,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" s="11">
-        <v>3406</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
@@ -2865,10 +2858,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C17" s="11">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
@@ -2876,21 +2869,32 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C18" s="11">
-        <v>34259</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="35" customHeight="1">
       <c r="A19" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C19" s="11">
-        <v>35599</v>
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="35" customHeight="1">
+      <c r="A20" s="11">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="11">
+        <v>34259</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +2933,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2940,7 +2944,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2951,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2962,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2984,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2992,10 +2996,10 @@
         <v>156</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3017,7 +3021,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3050,7 +3054,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3072,7 +3076,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3080,10 +3084,10 @@
         <v>1915</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3091,10 +3095,10 @@
         <v>1915</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3102,10 +3106,10 @@
         <v>1915</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3113,10 +3117,10 @@
         <v>1915</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3127,7 +3131,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3138,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3146,10 +3150,10 @@
         <v>3348</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3157,7 +3161,7 @@
         <v>3348</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -3168,10 +3172,10 @@
         <v>3348</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3179,10 +3183,10 @@
         <v>3348</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3193,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3204,7 +3208,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3215,7 +3219,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3226,7 +3230,7 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3237,7 +3241,7 @@
         <v>19</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3248,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3267,10 +3271,10 @@
         <v>3406</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3281,7 +3285,7 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3289,10 +3293,10 @@
         <v>3406</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3303,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3311,10 +3315,10 @@
         <v>6328</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3325,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3336,7 +3340,7 @@
         <v>16</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3344,10 +3348,10 @@
         <v>6328</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3358,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3369,7 +3373,7 @@
         <v>4</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3377,10 +3381,10 @@
         <v>19478</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3388,10 +3392,10 @@
         <v>19478</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3399,10 +3403,10 @@
         <v>19478</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3410,10 +3414,10 @@
         <v>23980</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3424,7 +3428,7 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3432,10 +3436,10 @@
         <v>23980</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3443,10 +3447,10 @@
         <v>23980</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3454,10 +3458,10 @@
         <v>23980</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3468,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3479,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3487,10 +3491,10 @@
         <v>34259</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3498,10 +3502,10 @@
         <v>34259</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3509,7 +3513,7 @@
         <v>34259</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -3523,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3534,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3542,10 +3546,10 @@
         <v>35599</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3553,10 +3557,10 @@
         <v>35599</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3564,10 +3568,10 @@
         <v>35599</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3578,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3586,10 +3590,10 @@
         <v>37854</v>
       </c>
       <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
         <v>5</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3600,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3608,7 +3612,7 @@
         <v>37854</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -3619,10 +3623,10 @@
         <v>37854</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3633,7 +3637,7 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3641,10 +3645,10 @@
         <v>39425</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3655,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3663,10 +3667,10 @@
         <v>39425</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3674,10 +3678,10 @@
         <v>39425</v>
       </c>
       <c r="B70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3688,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3696,10 +3700,10 @@
         <v>39444</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3710,7 +3714,7 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3721,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3729,10 +3733,10 @@
         <v>39444</v>
       </c>
       <c r="B75">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3740,10 +3744,10 @@
         <v>40010</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3754,7 +3758,7 @@
         <v>5</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3765,7 +3769,7 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3776,7 +3780,7 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3784,10 +3788,10 @@
         <v>40010</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3798,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3817,7 +3821,7 @@
         <v>44576</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -3828,10 +3832,10 @@
         <v>44576</v>
       </c>
       <c r="B84">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3839,10 +3843,10 @@
         <v>44576</v>
       </c>
       <c r="B85">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3853,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3864,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3875,7 +3879,7 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3886,7 +3890,7 @@
         <v>13</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3897,7 +3901,7 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3908,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3916,10 +3920,10 @@
         <v>46036</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3927,7 +3931,7 @@
         <v>46036</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -3938,10 +3942,10 @@
         <v>46036</v>
       </c>
       <c r="B94">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3963,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3971,10 +3975,10 @@
         <v>46299</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3982,7 +3986,7 @@
         <v>46299</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -3993,10 +3997,10 @@
         <v>46299</v>
       </c>
       <c r="B99">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4004,7 +4008,7 @@
         <v>46299</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -4028,7 +4032,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4038,76 +4042,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4131,7 +4135,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4141,29 +4145,29 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>153</v>
@@ -4171,46 +4175,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4244,62 +4248,62 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>151</v>
@@ -4307,13 +4311,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4341,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4347,76 +4351,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4429,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4439,31 +4443,35 @@
     <col min="2" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="B3" s="4">
         <v>151</v>
@@ -4474,91 +4482,81 @@
       <c r="D3" s="4">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3348</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3404</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3406</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4">
+        <v>19478</v>
+      </c>
+      <c r="C5" s="4">
+        <v>23980</v>
+      </c>
+      <c r="D5" s="4">
+        <v>34259</v>
+      </c>
+      <c r="E5" s="4">
+        <v>35599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="4">
-        <v>1915</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3348</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="4">
+        <v>37854</v>
+      </c>
+      <c r="C6" s="4">
+        <v>39425</v>
+      </c>
+      <c r="D6" s="4">
+        <v>39444</v>
+      </c>
+      <c r="E6" s="4">
+        <v>40010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="4">
-        <v>3406</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6328</v>
-      </c>
-      <c r="D5" s="4">
-        <v>19478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="4">
-        <v>23980</v>
-      </c>
-      <c r="C6" s="4">
-        <v>34259</v>
-      </c>
-      <c r="D6" s="4">
-        <v>35599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="B7" s="4">
-        <v>37854</v>
+        <v>44576</v>
       </c>
       <c r="C7" s="4">
-        <v>39425</v>
+        <v>45218</v>
       </c>
       <c r="D7" s="4">
-        <v>39444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="4">
-        <v>40010</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44576</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="4">
         <v>46036</v>
       </c>
-      <c r="C9" s="4">
+      <c r="E7" s="4">
         <v>46299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4577,7 +4575,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4587,51 +4585,51 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>151</v>
@@ -4639,24 +4637,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4680,7 +4678,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4690,76 +4688,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4783,7 +4781,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4793,76 +4791,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4884,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4896,76 +4894,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4989,7 +4987,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4999,76 +4997,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5092,7 +5090,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5102,18 +5100,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>149</v>
@@ -5121,57 +5119,57 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5193,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5205,76 +5203,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5298,7 +5296,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5308,76 +5306,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5401,7 +5399,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5411,76 +5409,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5502,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5514,76 +5512,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5607,20 +5605,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5628,10 +5626,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4">
-        <v>1915</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5639,10 +5637,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4">
-        <v>23980</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5650,7 +5648,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4">
         <v>3406</v>
@@ -5661,10 +5659,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4">
-        <v>6328</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5672,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4">
-        <v>37854</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5683,7 +5681,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4">
         <v>151</v>
@@ -5694,10 +5692,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4">
-        <v>34259</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5705,10 +5703,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4">
-        <v>156</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5716,10 +5714,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4">
-        <v>3348</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5727,10 +5725,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4">
-        <v>39425</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5738,10 +5736,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5749,10 +5747,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4">
-        <v>46036</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5760,7 +5758,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4">
         <v>156</v>
@@ -5771,10 +5769,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4">
-        <v>45218</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5782,10 +5780,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4">
-        <v>3348</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5793,10 +5791,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="4">
-        <v>19478</v>
+        <v>3404</v>
       </c>
     </row>
   </sheetData>
@@ -5820,7 +5818,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5830,76 +5828,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5923,7 +5921,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -5933,76 +5931,76 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6026,7 +6024,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6036,29 +6034,29 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>151</v>
@@ -6066,46 +6064,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6129,7 +6127,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6139,62 +6137,62 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>149</v>
@@ -6202,13 +6200,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6232,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6242,40 +6240,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>153</v>
@@ -6283,35 +6281,35 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6335,7 +6333,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -6345,40 +6343,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>151</v>
@@ -6386,35 +6384,35 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -6438,20 +6436,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -6459,10 +6457,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11">
-        <v>1915</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -6470,10 +6468,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="11">
-        <v>23980</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
@@ -6481,7 +6479,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11">
         <v>3406</v>
@@ -6492,10 +6490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11">
-        <v>6328</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -6503,10 +6501,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="11">
-        <v>37854</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
@@ -6514,7 +6512,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="11">
         <v>151</v>
@@ -6525,10 +6523,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11">
-        <v>34259</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -6536,10 +6534,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="11">
-        <v>156</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
@@ -6547,10 +6545,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" s="11">
-        <v>3348</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
@@ -6558,10 +6556,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="11">
-        <v>39425</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -6569,10 +6567,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="11">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
@@ -6580,10 +6578,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11">
-        <v>46036</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -6591,7 +6589,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" s="11">
         <v>156</v>
@@ -6602,10 +6600,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11">
-        <v>45218</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
@@ -6613,10 +6611,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C17" s="11">
-        <v>3348</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
@@ -6624,10 +6622,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="11">
-        <v>19478</v>
+        <v>3404</v>
       </c>
     </row>
   </sheetData>
@@ -6652,20 +6650,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6673,10 +6671,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4">
-        <v>3348</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6684,10 +6682,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4">
-        <v>34259</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6695,10 +6693,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4">
-        <v>46299</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6706,10 +6704,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4">
-        <v>23980</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6717,10 +6715,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4">
-        <v>39444</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6728,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4">
         <v>156</v>
@@ -6739,10 +6737,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4">
-        <v>35599</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6750,10 +6748,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4">
-        <v>45218</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6761,10 +6759,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4">
-        <v>46036</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6772,10 +6770,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4">
-        <v>151</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6783,10 +6781,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4">
-        <v>44576</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6794,10 +6792,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4">
-        <v>19478</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6805,10 +6803,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4">
-        <v>40010</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6816,10 +6814,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4">
-        <v>3404</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6827,10 +6825,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4">
-        <v>1915</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6838,10 +6836,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="4">
-        <v>6328</v>
+        <v>39444</v>
       </c>
     </row>
   </sheetData>
@@ -6865,20 +6863,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -6886,10 +6884,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11">
-        <v>3348</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -6897,10 +6895,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="11">
-        <v>34259</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
@@ -6908,10 +6906,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11">
-        <v>46299</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -6919,10 +6917,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11">
-        <v>23980</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -6930,10 +6928,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="11">
-        <v>39444</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
@@ -6941,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" s="11">
         <v>156</v>
@@ -6952,10 +6950,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11">
-        <v>35599</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -6963,10 +6961,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="11">
-        <v>45218</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
@@ -6974,10 +6972,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" s="11">
-        <v>46036</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
@@ -6985,10 +6983,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="11">
-        <v>151</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -6996,10 +6994,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="11">
-        <v>44576</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
@@ -7007,10 +7005,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11">
-        <v>19478</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -7018,10 +7016,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" s="11">
-        <v>40010</v>
+        <v>19478</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
@@ -7029,10 +7027,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11">
-        <v>3404</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
@@ -7040,10 +7038,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C17" s="11">
-        <v>1915</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
@@ -7051,10 +7049,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" s="11">
-        <v>6328</v>
+        <v>39444</v>
       </c>
     </row>
   </sheetData>
@@ -7068,7 +7066,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7079,20 +7077,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7100,10 +7098,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
-        <v>3404</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7111,10 +7109,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4">
-        <v>35599</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7122,10 +7120,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4">
-        <v>40010</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7133,10 +7131,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4">
-        <v>19478</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7144,10 +7142,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4">
-        <v>3406</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7155,7 +7153,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4">
         <v>176</v>
@@ -7166,10 +7164,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4">
-        <v>37854</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7177,10 +7175,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4">
-        <v>23980</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7188,10 +7186,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4">
-        <v>1915</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7199,10 +7197,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4">
-        <v>156</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7210,10 +7208,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4">
-        <v>45218</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7221,10 +7219,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4">
-        <v>151</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7232,10 +7230,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4">
-        <v>44576</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7243,7 +7241,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C16" s="4">
         <v>46036</v>
@@ -7254,10 +7252,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4">
-        <v>46299</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7265,21 +7263,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4">
-        <v>23980</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="4">
-        <v>39425</v>
+        <v>35599</v>
       </c>
     </row>
   </sheetData>
@@ -7292,7 +7279,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -7303,20 +7290,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -7324,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="11">
-        <v>3404</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="35" customHeight="1">
@@ -7335,10 +7322,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="11">
-        <v>35599</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35" customHeight="1">
@@ -7346,10 +7333,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="11">
-        <v>40010</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -7357,10 +7344,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="11">
-        <v>19478</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -7368,10 +7355,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11">
-        <v>3406</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
@@ -7379,7 +7366,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="11">
         <v>176</v>
@@ -7390,10 +7377,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11">
-        <v>37854</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -7401,10 +7388,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="11">
-        <v>23980</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
@@ -7412,10 +7399,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="11">
-        <v>1915</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
@@ -7423,10 +7410,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11">
-        <v>156</v>
+        <v>39444</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -7434,10 +7421,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="11">
-        <v>45218</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
@@ -7445,10 +7432,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14" s="11">
-        <v>151</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -7456,10 +7443,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11">
-        <v>44576</v>
+        <v>34259</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
@@ -7467,7 +7454,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C16" s="11">
         <v>46036</v>
@@ -7478,10 +7465,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11">
-        <v>46299</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="35" customHeight="1">
@@ -7489,21 +7476,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" s="11">
-        <v>23980</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="35" customHeight="1">
-      <c r="A19" s="11">
-        <v>22</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="11">
-        <v>39425</v>
+        <v>35599</v>
       </c>
     </row>
   </sheetData>
@@ -7517,7 +7493,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7528,20 +7504,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7549,10 +7525,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
-        <v>3406</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7560,10 +7536,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4">
-        <v>37854</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7571,10 +7547,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4">
-        <v>44576</v>
+        <v>45218</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7582,10 +7558,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4">
-        <v>34259</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7593,10 +7569,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4">
-        <v>40010</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7604,10 +7580,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4">
-        <v>46036</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7615,10 +7591,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4">
-        <v>39425</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7626,7 +7602,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4">
         <v>176</v>
@@ -7637,10 +7613,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4">
-        <v>3404</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7648,10 +7624,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4">
-        <v>39444</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7659,10 +7635,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4">
-        <v>1915</v>
+        <v>46036</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7670,10 +7646,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4">
-        <v>46299</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7681,10 +7657,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4">
-        <v>3348</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7692,10 +7668,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C16" s="4">
-        <v>6328</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7703,7 +7679,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4">
         <v>19478</v>
@@ -7714,21 +7690,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4">
-        <v>35599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="4">
-        <v>37854</v>
+        <v>39425</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -39,14 +39,13 @@
     <sheet name="Team 56689 Schedule" sheetId="30" r:id="rId30"/>
     <sheet name="Team 57028 Schedule" sheetId="31" r:id="rId31"/>
     <sheet name="Team 57965 Schedule" sheetId="32" r:id="rId32"/>
-    <sheet name="Team 59040 Schedule" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="193">
   <si>
     <t>TEAM LIST</t>
   </si>
@@ -108,9 +107,6 @@
     <t xml:space="preserve">LegoLexers </t>
   </si>
   <si>
-    <t>Vikingbots</t>
-  </si>
-  <si>
     <t>ROBOT ROUNDS SCHEDULE</t>
   </si>
   <si>
@@ -369,19 +365,22 @@
     <t>9:30-9:33</t>
   </si>
   <si>
+    <t>10:00-10:03</t>
+  </si>
+  <si>
     <t>10:10-10:13</t>
   </si>
   <si>
-    <t>10:20-10:23</t>
-  </si>
-  <si>
     <t>10:30-10:33</t>
   </si>
   <si>
     <t>10:40-10:43</t>
   </si>
   <si>
-    <t>10:50-10:53</t>
+    <t>11:00-11:03</t>
+  </si>
+  <si>
+    <t>11:10-11:13</t>
   </si>
   <si>
     <t>11:20-11:23</t>
@@ -393,9 +392,6 @@
     <t>11:40-11:43</t>
   </si>
   <si>
-    <t>11:50-11:53</t>
-  </si>
-  <si>
     <t>12:00-12:03</t>
   </si>
   <si>
@@ -420,7 +416,7 @@
     <t>9:43-9:46</t>
   </si>
   <si>
-    <t>10:13-10:16</t>
+    <t>10:03-10:06</t>
   </si>
   <si>
     <t>10:23-10:26</t>
@@ -432,7 +428,7 @@
     <t>10:43-10:46</t>
   </si>
   <si>
-    <t>10:53-10:56</t>
+    <t>11:03-11:06</t>
   </si>
   <si>
     <t>11:23-11:26</t>
@@ -444,15 +440,9 @@
     <t>11:43-11:46</t>
   </si>
   <si>
-    <t>11:53-11:56</t>
-  </si>
-  <si>
     <t>12:03-12:06</t>
   </si>
   <si>
-    <t>12:13-12:16</t>
-  </si>
-  <si>
     <t>TABLE B2 SCHEDULE</t>
   </si>
   <si>
@@ -471,19 +461,22 @@
     <t>9:36-9:40</t>
   </si>
   <si>
-    <t>9:46-9:50</t>
+    <t>10:06-10:10</t>
   </si>
   <si>
     <t>10:16-10:20</t>
   </si>
   <si>
+    <t>10:26-10:30</t>
+  </si>
+  <si>
     <t>10:36-10:40</t>
   </si>
   <si>
     <t>10:46-10:50</t>
   </si>
   <si>
-    <t>10:56-11:00</t>
+    <t>11:06-11:10</t>
   </si>
   <si>
     <t>11:26-11:30</t>
@@ -495,9 +488,6 @@
     <t>11:46-11:50</t>
   </si>
   <si>
-    <t>11:56-12:00</t>
-  </si>
-  <si>
     <t>12:06-12:10</t>
   </si>
   <si>
@@ -519,111 +509,114 @@
     <t>Judging</t>
   </si>
   <si>
+    <t>Match 7</t>
+  </si>
+  <si>
+    <t>Table R1</t>
+  </si>
+  <si>
+    <t>Match 9</t>
+  </si>
+  <si>
+    <t>Table B1</t>
+  </si>
+  <si>
+    <t>Match 11</t>
+  </si>
+  <si>
+    <t>Table Y1</t>
+  </si>
+  <si>
+    <t>Match 13</t>
+  </si>
+  <si>
+    <t>Table Y2</t>
+  </si>
+  <si>
+    <t>Match 16</t>
+  </si>
+  <si>
+    <t>Table R2</t>
+  </si>
+  <si>
+    <t>TEAM 19991 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 14</t>
+  </si>
+  <si>
+    <t>TEAM 27041 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Table B2</t>
+  </si>
+  <si>
+    <t>Match 15</t>
+  </si>
+  <si>
+    <t>Match 17</t>
+  </si>
+  <si>
+    <t>TEAM 27042 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 19</t>
+  </si>
+  <si>
+    <t>TEAM 30554 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 1</t>
+  </si>
+  <si>
+    <t>Match 3</t>
+  </si>
+  <si>
+    <t>Match 10</t>
+  </si>
+  <si>
+    <t>TEAM 32514 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 32648 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 35599 SCHEDULE</t>
+  </si>
+  <si>
+    <t>TEAM 45129 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 5</t>
+  </si>
+  <si>
+    <t>TEAM 45554 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 4</t>
+  </si>
+  <si>
+    <t>TEAM 52525 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 2</t>
+  </si>
+  <si>
+    <t>TEAM 52853 SCHEDULE</t>
+  </si>
+  <si>
+    <t>Match 20</t>
+  </si>
+  <si>
+    <t>TEAM 53076 SCHEDULE</t>
+  </si>
+  <si>
     <t>Match 8</t>
   </si>
   <si>
-    <t>Table R1</t>
-  </si>
-  <si>
-    <t>Match 10</t>
-  </si>
-  <si>
-    <t>Table R2</t>
-  </si>
-  <si>
-    <t>Match 12</t>
-  </si>
-  <si>
-    <t>Match 16</t>
-  </si>
-  <si>
-    <t>Table B1</t>
-  </si>
-  <si>
-    <t>Match 18</t>
-  </si>
-  <si>
-    <t>TEAM 19991 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 11</t>
-  </si>
-  <si>
-    <t>Table Y1</t>
-  </si>
-  <si>
-    <t>Match 15</t>
-  </si>
-  <si>
-    <t>Match 17</t>
-  </si>
-  <si>
-    <t>Match 19</t>
-  </si>
-  <si>
-    <t>TEAM 27041 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Table B2</t>
-  </si>
-  <si>
-    <t>TEAM 27042 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Table Y2</t>
-  </si>
-  <si>
-    <t>Match 20</t>
-  </si>
-  <si>
-    <t>TEAM 30554 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 1</t>
-  </si>
-  <si>
-    <t>Match 3</t>
-  </si>
-  <si>
-    <t>TEAM 32514 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 32648 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 35599 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 45129 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 4</t>
-  </si>
-  <si>
-    <t>TEAM 45554 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 52525 SCHEDULE</t>
-  </si>
-  <si>
-    <t>Match 2</t>
-  </si>
-  <si>
-    <t>TEAM 52853 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 53076 SCHEDULE</t>
-  </si>
-  <si>
     <t>TEAM 53690 SCHEDULE</t>
   </si>
   <si>
-    <t>Match 5</t>
-  </si>
-  <si>
-    <t>Match 9</t>
-  </si>
-  <si>
     <t>TEAM 56689 SCHEDULE</t>
   </si>
   <si>
@@ -631,9 +624,6 @@
   </si>
   <si>
     <t>TEAM 57965 SCHEDULE</t>
-  </si>
-  <si>
-    <t>TEAM 59040 SCHEDULE</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1256,14 +1246,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>59040</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1274,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1285,20 +1267,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1306,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="5">
         <v>35599</v>
@@ -1317,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5">
         <v>53690</v>
@@ -1328,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5">
-        <v>32648</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1339,10 +1321,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5">
-        <v>52853</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1350,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5">
         <v>57028</v>
@@ -1358,10 +1340,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="5">
         <v>27042</v>
@@ -1372,10 +1354,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5">
-        <v>59040</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1383,10 +1365,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5">
-        <v>30554</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1394,21 +1376,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5">
-        <v>59040</v>
+        <v>56689</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5">
-        <v>27041</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1416,10 +1398,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5">
-        <v>45554</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1427,10 +1409,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="5">
-        <v>57965</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1438,43 +1420,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5">
-        <v>45129</v>
+        <v>52525</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="5">
         <v>52525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="5">
-        <v>53076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="5">
-        <v>56689</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1447,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -1498,20 +1458,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -1519,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="12">
         <v>35599</v>
@@ -1530,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="12">
         <v>53690</v>
@@ -1541,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12">
-        <v>32648</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -1552,10 +1512,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="12">
-        <v>52853</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -1563,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="12">
         <v>57028</v>
@@ -1571,10 +1531,10 @@
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="12">
         <v>27042</v>
@@ -1585,10 +1545,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="12">
-        <v>59040</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -1596,10 +1556,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12">
-        <v>30554</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
@@ -1607,21 +1567,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="12">
-        <v>59040</v>
+        <v>56689</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="12">
-        <v>27041</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -1629,10 +1589,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="12">
-        <v>45554</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
@@ -1640,10 +1600,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="12">
-        <v>57965</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -1651,43 +1611,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="12">
-        <v>45129</v>
+        <v>52525</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
       <c r="A16" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="12">
         <v>52525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="35" customHeight="1">
-      <c r="A17" s="12">
-        <v>19</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="12">
-        <v>53076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="35" customHeight="1">
-      <c r="A18" s="12">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="12">
-        <v>56689</v>
       </c>
     </row>
   </sheetData>
@@ -1712,20 +1650,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1733,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5">
         <v>45129</v>
@@ -1744,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5">
         <v>56689</v>
@@ -1755,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5">
-        <v>57965</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1766,21 +1704,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="5">
-        <v>53076</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5">
-        <v>59040</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1788,7 +1726,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5">
         <v>57028</v>
@@ -1796,79 +1734,79 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" s="5">
-        <v>32514</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="5">
-        <v>19991</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="5">
-        <v>30554</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="5">
-        <v>52853</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="5">
-        <v>27042</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" s="5">
-        <v>19991</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="5">
-        <v>27041</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1876,10 +1814,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="5">
-        <v>45554</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1887,10 +1825,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C17" s="5">
-        <v>52525</v>
+        <v>52853</v>
       </c>
     </row>
   </sheetData>
@@ -1914,20 +1852,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -1935,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" s="12">
         <v>45129</v>
@@ -1946,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12">
         <v>56689</v>
@@ -1957,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="12">
-        <v>57965</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -1968,21 +1906,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="12">
-        <v>53076</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="12">
-        <v>59040</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
@@ -1990,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="12">
         <v>57028</v>
@@ -1998,79 +1936,79 @@
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
       <c r="A9" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" s="12">
-        <v>32514</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
       <c r="A10" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="12">
-        <v>19991</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="12">
-        <v>30554</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="12">
-        <v>52853</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="12">
-        <v>27042</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" s="12">
-        <v>19991</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="12">
-        <v>27041</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
@@ -2078,10 +2016,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="12">
-        <v>45554</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="35" customHeight="1">
@@ -2089,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C17" s="12">
-        <v>52525</v>
+        <v>52853</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2117,20 +2055,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2138,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5">
         <v>45554</v>
@@ -2149,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5">
         <v>57028</v>
@@ -2160,10 +2098,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5">
-        <v>59040</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2171,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="5">
         <v>56689</v>
@@ -2179,10 +2117,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5">
         <v>57965</v>
@@ -2193,84 +2131,84 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5">
-        <v>53076</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" s="5">
-        <v>32648</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="5">
-        <v>27042</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="5">
-        <v>32514</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="5">
-        <v>45129</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="5">
-        <v>35599</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" s="5">
-        <v>30554</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="5">
         <v>52853</v>
@@ -2281,21 +2219,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="5">
-        <v>53690</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="5">
-        <v>52853</v>
+        <v>57028</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2235,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -2319,20 +2246,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -2340,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" s="12">
         <v>45554</v>
@@ -2351,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="12">
         <v>57028</v>
@@ -2362,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="12">
-        <v>59040</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -2373,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="12">
         <v>56689</v>
@@ -2381,10 +2308,10 @@
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="12">
         <v>57965</v>
@@ -2395,84 +2322,84 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" s="12">
-        <v>53076</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
       <c r="A9" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C9" s="12">
-        <v>32648</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
       <c r="A10" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="12">
-        <v>27042</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="12">
-        <v>32514</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="12">
-        <v>45129</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C13" s="12">
-        <v>35599</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" s="12">
-        <v>30554</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C15" s="12">
         <v>52853</v>
@@ -2483,21 +2410,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="12">
-        <v>53690</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="35" customHeight="1">
-      <c r="A17" s="12">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="12">
-        <v>52853</v>
+        <v>57028</v>
       </c>
     </row>
   </sheetData>
@@ -2522,83 +2438,83 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>163</v>
@@ -2625,86 +2541,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2728,86 +2644,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2831,83 +2747,83 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>163</v>
@@ -2936,7 +2852,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2950,34 +2866,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2985,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5">
         <v>30554</v>
@@ -2994,7 +2910,7 @@
         <v>32514</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5">
         <v>32648</v>
@@ -3003,7 +2919,7 @@
         <v>35599</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5">
         <v>45129</v>
@@ -3017,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>52525</v>
@@ -3026,7 +2942,7 @@
         <v>52853</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5">
         <v>53076</v>
@@ -3035,7 +2951,7 @@
         <v>53690</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5">
         <v>56689</v>
@@ -3049,31 +2965,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <v>32514</v>
       </c>
       <c r="D5" s="5">
-        <v>35599</v>
+        <v>32648</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5">
         <v>30554</v>
       </c>
       <c r="G5" s="5">
-        <v>32648</v>
+        <v>57965</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5">
-        <v>57965</v>
+        <v>35599</v>
       </c>
       <c r="J5" s="5">
-        <v>59040</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3081,28 +2997,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
-        <v>45129</v>
+        <v>45554</v>
       </c>
       <c r="D6" s="5">
         <v>52525</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5">
+        <v>52853</v>
+      </c>
+      <c r="G6" s="5">
+        <v>53076</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5">
-        <v>45554</v>
-      </c>
-      <c r="G6" s="5">
-        <v>52853</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" s="5">
-        <v>53076</v>
+        <v>53690</v>
       </c>
       <c r="J6" s="5">
         <v>56689</v>
@@ -3113,45 +3029,41 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5">
-        <v>53690</v>
+        <v>45129</v>
       </c>
       <c r="G7" s="5">
         <v>57028</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="5">
-        <v>59040</v>
-      </c>
-      <c r="J7" s="5">
-        <v>57965</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -3161,51 +3073,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5">
+        <v>18300</v>
+      </c>
+      <c r="D9" s="5">
+        <v>19991</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="5">
+        <v>27041</v>
+      </c>
+      <c r="G9" s="5">
+        <v>27042</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="5">
+        <v>45554</v>
+      </c>
+      <c r="J9" s="5">
+        <v>57965</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5">
+        <v>53076</v>
+      </c>
+      <c r="D10" s="5">
+        <v>56689</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="5">
-        <v>18300</v>
-      </c>
-      <c r="D10" s="5">
-        <v>19991</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" s="5">
-        <v>27041</v>
-      </c>
-      <c r="G10" s="5">
-        <v>27042</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="I10" s="5">
         <v>57028</v>
       </c>
       <c r="J10" s="5">
-        <v>53076</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3213,59 +3133,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5">
-        <v>53690</v>
-      </c>
-      <c r="D11" s="5">
-        <v>56689</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5">
+        <v>18300</v>
+      </c>
+      <c r="G11" s="5">
+        <v>27041</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="5">
-        <v>57965</v>
-      </c>
-      <c r="G11" s="5">
-        <v>59040</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="5">
+        <v>19991</v>
+      </c>
+      <c r="J11" s="5">
+        <v>27042</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5">
+        <v>32648</v>
+      </c>
+      <c r="D12" s="5">
+        <v>30554</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="5">
-        <v>27041</v>
-      </c>
-      <c r="D12" s="5">
-        <v>18300</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="5">
         <v>35599</v>
       </c>
       <c r="G12" s="5">
-        <v>30554</v>
+        <v>32514</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="5">
-        <v>32514</v>
+        <v>57965</v>
       </c>
       <c r="J12" s="5">
-        <v>32648</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3273,31 +3193,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5">
+        <v>27041</v>
+      </c>
+      <c r="D13" s="5">
+        <v>57028</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="5">
-        <v>53076</v>
-      </c>
-      <c r="D13" s="5">
-        <v>57965</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="5">
+        <v>19991</v>
+      </c>
+      <c r="G13" s="5">
+        <v>56689</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="5">
-        <v>57028</v>
-      </c>
-      <c r="G13" s="5">
-        <v>59040</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="I13" s="5">
-        <v>19991</v>
+        <v>18300</v>
       </c>
       <c r="J13" s="5">
-        <v>27042</v>
+        <v>53690</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3305,69 +3225,73 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="5">
-        <v>18300</v>
-      </c>
-      <c r="D14" s="5">
-        <v>53690</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="5">
-        <v>56689</v>
-      </c>
-      <c r="G14" s="5">
-        <v>27041</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="5">
-        <v>30554</v>
-      </c>
-      <c r="J14" s="5">
-        <v>32514</v>
-      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="5">
+        <v>32514</v>
+      </c>
+      <c r="D15" s="5">
+        <v>57965</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="5">
+        <v>27042</v>
+      </c>
+      <c r="G15" s="5">
+        <v>30554</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="5">
+        <v>32648</v>
+      </c>
+      <c r="J15" s="5">
+        <v>18300</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="5">
+        <v>19991</v>
+      </c>
+      <c r="D16" s="5">
+        <v>35599</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -3377,31 +3301,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="5">
+        <v>52853</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45554</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="5">
-        <v>19991</v>
-      </c>
-      <c r="D17" s="5">
-        <v>32648</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="F17" s="5">
         <v>52525</v>
       </c>
       <c r="G17" s="5">
-        <v>45554</v>
+        <v>45129</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="5">
-        <v>52853</v>
+        <v>27041</v>
       </c>
       <c r="J17" s="5">
-        <v>45129</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3409,31 +3333,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="5">
+        <v>27042</v>
+      </c>
+      <c r="D18" s="5">
+        <v>18300</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="5">
-        <v>59040</v>
-      </c>
-      <c r="D18" s="5">
-        <v>27041</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="5">
+        <v>57965</v>
+      </c>
+      <c r="G18" s="5">
+        <v>32648</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="5">
-        <v>18300</v>
-      </c>
-      <c r="G18" s="5">
-        <v>57965</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="I18" s="5">
-        <v>27042</v>
+        <v>32514</v>
       </c>
       <c r="J18" s="5">
-        <v>35599</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3441,31 +3365,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5">
+        <v>35599</v>
+      </c>
+      <c r="D19" s="5">
+        <v>27041</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="5">
-        <v>32648</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="F19" s="5">
         <v>45554</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="G19" s="5">
+        <v>52525</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="5">
-        <v>32514</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="I19" s="5">
         <v>45129</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="5">
-        <v>19991</v>
-      </c>
       <c r="J19" s="5">
-        <v>30554</v>
+        <v>52853</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3473,63 +3397,51 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="5">
-        <v>35599</v>
-      </c>
-      <c r="D20" s="5">
-        <v>27042</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="5">
-        <v>18300</v>
-      </c>
-      <c r="G20" s="5">
-        <v>52525</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="5">
-        <v>27041</v>
-      </c>
-      <c r="J20" s="5">
-        <v>52853</v>
-      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="5">
+        <v>53690</v>
+      </c>
+      <c r="D21" s="5">
+        <v>27042</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="5">
+      <c r="F21" s="5">
+        <v>56689</v>
+      </c>
+      <c r="G21" s="5">
+        <v>52525</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="5">
+        <v>53076</v>
+      </c>
+      <c r="J21" s="5">
         <v>57028</v>
-      </c>
-      <c r="D21" s="5">
-        <v>45129</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="5">
-        <v>19991</v>
-      </c>
-      <c r="G21" s="5">
-        <v>53076</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="5">
-        <v>45554</v>
-      </c>
-      <c r="J21" s="5">
-        <v>53690</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3537,28 +3449,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="5">
-        <v>27042</v>
-      </c>
-      <c r="G22" s="5">
-        <v>56689</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="I22" s="5">
-        <v>52525</v>
-      </c>
-      <c r="J22" s="5">
         <v>52853</v>
       </c>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3581,72 +3487,72 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>167</v>
@@ -3654,13 +3560,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3684,61 +3590,61 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>167</v>
@@ -3746,24 +3652,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3787,86 +3693,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3890,86 +3796,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3993,86 +3899,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4096,86 +4002,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4199,83 +4105,83 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>167</v>
@@ -4302,86 +4208,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4405,39 +4311,39 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>167</v>
@@ -4445,46 +4351,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4515,79 +4421,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4612,7 +4518,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4621,24 +4527,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5">
         <v>18300</v>
@@ -4655,7 +4561,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5">
         <v>30554</v>
@@ -4672,7 +4578,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5">
         <v>45129</v>
@@ -4689,7 +4595,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="5">
         <v>53076</v>
@@ -4706,13 +4612,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5">
         <v>57965</v>
-      </c>
-      <c r="C7" s="5">
-        <v>59040</v>
       </c>
     </row>
   </sheetData>
@@ -4736,86 +4639,86 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4839,61 +4742,61 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>163</v>
@@ -4901,24 +4804,24 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4942,28 +4845,28 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>167</v>
@@ -4971,24 +4874,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4996,135 +4899,32 @@
         <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5148,20 +4948,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5169,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="5">
         <v>30554</v>
@@ -5180,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5">
         <v>52525</v>
@@ -5191,7 +4991,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5">
         <v>32514</v>
@@ -5202,18 +5002,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5">
-        <v>45129</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5">
         <v>18300</v>
@@ -5221,13 +5021,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5">
-        <v>53690</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5235,10 +5035,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5">
-        <v>27041</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5246,29 +5046,29 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="5">
-        <v>53076</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5">
-        <v>18300</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5">
         <v>19991</v>
@@ -5276,32 +5076,32 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5">
-        <v>59040</v>
+        <v>52853</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5">
-        <v>32648</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="5">
         <v>35599</v>
@@ -5312,10 +5112,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="5">
-        <v>57028</v>
+        <v>53690</v>
       </c>
     </row>
   </sheetData>
@@ -5339,20 +5139,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -5360,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12">
         <v>30554</v>
@@ -5371,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12">
         <v>52525</v>
@@ -5382,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12">
         <v>32514</v>
@@ -5393,18 +5193,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12">
-        <v>45129</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12">
         <v>18300</v>
@@ -5412,13 +5212,13 @@
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12">
-        <v>53690</v>
+        <v>53076</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35" customHeight="1">
@@ -5426,10 +5226,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12">
-        <v>27041</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -5437,29 +5237,29 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12">
-        <v>53076</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12">
-        <v>18300</v>
+        <v>32514</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="12">
         <v>19991</v>
@@ -5467,32 +5267,32 @@
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="12">
-        <v>59040</v>
+        <v>52853</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="12">
-        <v>32648</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="12">
         <v>35599</v>
@@ -5503,10 +5303,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="12">
-        <v>57028</v>
+        <v>53690</v>
       </c>
     </row>
   </sheetData>
@@ -5531,20 +5331,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5552,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="5">
         <v>32514</v>
@@ -5563,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5">
         <v>52853</v>
@@ -5574,10 +5374,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="5">
-        <v>35599</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5585,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5">
         <v>52525</v>
@@ -5593,10 +5393,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5">
         <v>19991</v>
@@ -5604,10 +5404,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5">
         <v>56689</v>
@@ -5618,10 +5418,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5">
-        <v>18300</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5629,65 +5429,65 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="5">
-        <v>57965</v>
+        <v>57028</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5">
-        <v>53690</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5">
-        <v>32648</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5">
-        <v>27041</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5">
-        <v>45554</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="5">
-        <v>27042</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5695,10 +5495,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="5">
-        <v>45129</v>
+        <v>27042</v>
       </c>
     </row>
   </sheetData>
@@ -5722,20 +5522,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -5743,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12">
         <v>32514</v>
@@ -5754,7 +5554,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12">
         <v>52853</v>
@@ -5765,10 +5565,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="12">
-        <v>35599</v>
+        <v>32648</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="35" customHeight="1">
@@ -5776,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12">
         <v>52525</v>
@@ -5784,10 +5584,10 @@
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
       <c r="A7" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12">
         <v>19991</v>
@@ -5795,10 +5595,10 @@
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12">
         <v>56689</v>
@@ -5809,10 +5609,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12">
-        <v>18300</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -5820,65 +5620,65 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="12">
-        <v>57965</v>
+        <v>57028</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35" customHeight="1">
       <c r="A11" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12">
-        <v>53690</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="12">
-        <v>32648</v>
+        <v>35599</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
       <c r="A13" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="12">
-        <v>27041</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="35" customHeight="1">
       <c r="A14" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="12">
-        <v>45554</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
       <c r="A15" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="12">
-        <v>27042</v>
+        <v>27041</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
@@ -5886,10 +5686,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="12">
-        <v>45129</v>
+        <v>27042</v>
       </c>
     </row>
   </sheetData>
@@ -5903,7 +5703,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5914,20 +5714,20 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5935,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="5">
         <v>32648</v>
@@ -5946,7 +5746,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5">
         <v>53076</v>
@@ -5957,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5">
         <v>30554</v>
@@ -5968,10 +5768,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5">
-        <v>45554</v>
+        <v>52853</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5979,18 +5779,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5">
-        <v>53690</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="5">
         <v>27041</v>
@@ -6001,10 +5801,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5">
-        <v>57965</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6012,7 +5812,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5">
         <v>35599</v>
@@ -6023,21 +5823,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="5">
-        <v>57028</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5">
-        <v>56689</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6045,7 +5845,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5">
         <v>52525</v>
@@ -6056,10 +5856,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="5">
-        <v>18300</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6067,43 +5867,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="5">
-        <v>32514</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="5">
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="5">
-        <v>19991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="5">
-        <v>27042</v>
+        <v>56689</v>
       </c>
     </row>
   </sheetData>
@@ -6116,7 +5894,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
@@ -6127,20 +5905,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="35" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="35" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35" customHeight="1">
@@ -6148,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="12">
         <v>32648</v>
@@ -6159,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="12">
         <v>53076</v>
@@ -6170,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12">
         <v>30554</v>
@@ -6181,10 +5959,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="12">
-        <v>45554</v>
+        <v>52853</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="35" customHeight="1">
@@ -6192,18 +5970,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="12">
-        <v>53690</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35" customHeight="1">
       <c r="A8" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="12">
         <v>27041</v>
@@ -6214,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="12">
-        <v>57965</v>
+        <v>18300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35" customHeight="1">
@@ -6225,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12">
         <v>35599</v>
@@ -6236,21 +6014,21 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="12">
-        <v>57028</v>
+        <v>19991</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="35" customHeight="1">
       <c r="A12" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="12">
-        <v>56689</v>
+        <v>27042</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="35" customHeight="1">
@@ -6258,7 +6036,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="12">
         <v>52525</v>
@@ -6269,10 +6047,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="12">
-        <v>18300</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="35" customHeight="1">
@@ -6280,43 +6058,21 @@
         <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="12">
-        <v>32514</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="35" customHeight="1">
       <c r="A16" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="12">
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="35" customHeight="1">
-      <c r="A17" s="12">
-        <v>19</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="12">
-        <v>19991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="35" customHeight="1">
-      <c r="A18" s="12">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="12">
-        <v>27042</v>
+        <v>56689</v>
       </c>
     </row>
   </sheetData>
